--- a/docs/faqs.xlsx
+++ b/docs/faqs.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\Github\sporteth0\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62068176-FB8F-4116-93E7-2790F1CF1131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE4E154-AC3F-4486-A1EB-811555C3D190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30225" yWindow="2445" windowWidth="26925" windowHeight="13665" xr2:uid="{ED304670-DDB2-49C3-8B51-405BE1F15E00}"/>
+    <workbookView xWindow="31725" yWindow="2355" windowWidth="19365" windowHeight="11955" activeTab="1" xr2:uid="{ED304670-DDB2-49C3-8B51-405BE1F15E00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="59">
   <si>
     <t>initialPost</t>
   </si>
@@ -77,30 +78,12 @@
     <t>gas</t>
   </si>
   <si>
-    <t>settlePost</t>
-  </si>
-  <si>
     <t>redeem</t>
   </si>
   <si>
-    <t>first start</t>
-  </si>
-  <si>
-    <t>odds1</t>
-  </si>
-  <si>
     <t>nonce</t>
   </si>
   <si>
-    <t>odds0</t>
-  </si>
-  <si>
-    <t>concLimit</t>
-  </si>
-  <si>
-    <t>startTime</t>
-  </si>
-  <si>
     <t>LP shares</t>
   </si>
   <si>
@@ -113,60 +96,18 @@
     <t>payoff0</t>
   </si>
   <si>
-    <t>bettorLocked</t>
-  </si>
-  <si>
     <t>betLong1</t>
   </si>
   <si>
-    <t>bookieLocked</t>
-  </si>
-  <si>
     <t>betLong0</t>
   </si>
   <si>
-    <t>bookie</t>
-  </si>
-  <si>
     <t>betData</t>
   </si>
   <si>
     <t>margin</t>
   </si>
   <si>
-    <t>running sum</t>
-  </si>
-  <si>
-    <t>no vote</t>
-  </si>
-  <si>
-    <t>yes vote</t>
-  </si>
-  <si>
-    <t>total Oracle Tokens</t>
-  </si>
-  <si>
-    <t>post + cure_time</t>
-  </si>
-  <si>
-    <t>updatePost</t>
-  </si>
-  <si>
-    <t>proposal counter</t>
-  </si>
-  <si>
-    <t>initPost</t>
-  </si>
-  <si>
-    <t>process monitor</t>
-  </si>
-  <si>
-    <t>no post</t>
-  </si>
-  <si>
-    <t>epoch[1[</t>
-  </si>
-  <si>
     <t>params</t>
   </si>
   <si>
@@ -186,6 +127,93 @@
   </si>
   <si>
     <t>oracle</t>
+  </si>
+  <si>
+    <t>0x2572ee2a871fcc586722c3e57d43831d78e7219c</t>
+  </si>
+  <si>
+    <t>0xdc63c0436707975689036ad87b2dcbec81ac4ff488501115995ae84e7f9a1286</t>
+  </si>
+  <si>
+    <t>0xa72D870f07b757B9Dc69b2dE123814Ce8f227e51</t>
+  </si>
+  <si>
+    <t>0x4765ce94f9ef7d4ea3f4023e9a1e2936f47fb2cbb8be104d3883b6ef721f5aa4</t>
+  </si>
+  <si>
+    <t>0xCA511440bcE7671c44962290425254029de4C2Ed</t>
+  </si>
+  <si>
+    <t>0x7db8d1b550d89152d93111ca132253f09ed30ac337a0a802c0c032ad3a97933f</t>
+  </si>
+  <si>
+    <t>concentration param</t>
+  </si>
+  <si>
+    <t>weekend start time utc</t>
+  </si>
+  <si>
+    <t>total LP capital</t>
+  </si>
+  <si>
+    <t>locked LP capital</t>
+  </si>
+  <si>
+    <t>bettor capital</t>
+  </si>
+  <si>
+    <t>Paused</t>
+  </si>
+  <si>
+    <t>match</t>
+  </si>
+  <si>
+    <t>reviewStatus</t>
+  </si>
+  <si>
+    <t>ready for initial post of schedule&amp;odds</t>
+  </si>
+  <si>
+    <t>ready for update or settlement post</t>
+  </si>
+  <si>
+    <t>ready for processing initial post</t>
+  </si>
+  <si>
+    <t>ready for processing updated odds post</t>
+  </si>
+  <si>
+    <t>ready for processing settlement</t>
+  </si>
+  <si>
+    <t>feeData</t>
+  </si>
+  <si>
+    <t>total claimed Tokens in oracle contract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cumulative oracle rev/tokens </t>
+  </si>
+  <si>
+    <t>propResults</t>
+  </si>
+  <si>
+    <t>team 0 won</t>
+  </si>
+  <si>
+    <t>team 1 won</t>
+  </si>
+  <si>
+    <t>tie or no contest</t>
+  </si>
+  <si>
+    <t>Token contract was deployed to 0x2BC4A81c9Da4c6b561d37Ab8016A45aC74259bcE</t>
+  </si>
+  <si>
+    <t>Betting contract was deployed to 0x8Fa2C424b764E4D0D751D2DDCE346758FdDF1c83</t>
+  </si>
+  <si>
+    <t>Oracle contract was deployed to 0x133C77B6c77512509c0CF23d691DEA143C06Bb8F</t>
   </si>
 </sst>
 </file>
@@ -196,8 +224,8 @@
     <numFmt numFmtId="164" formatCode="#,##0;[Red]#,##0"/>
     <numFmt numFmtId="165" formatCode="#,##0.00;[Red]#,##0.00"/>
     <numFmt numFmtId="166" formatCode="0E+00;[Red]0E+00"/>
-    <numFmt numFmtId="168" formatCode="0.0%;[Red]\-0.0%"/>
-    <numFmt numFmtId="170" formatCode="0.00E+00;[Red]0.00E+00"/>
+    <numFmt numFmtId="167" formatCode="0.0%;[Red]\-0.0%"/>
+    <numFmt numFmtId="168" formatCode="0.00E+00;[Red]0.00E+00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -249,8 +277,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -566,10 +594,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EC49C27-89B5-47DB-92FE-5D6F5C7DABAF}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="C2:N27"/>
+  <dimension ref="C2:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,7 +606,7 @@
     <col min="5" max="6" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C2">
         <v>30</v>
       </c>
@@ -586,13 +614,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C3" s="5"/>
       <c r="D3" s="6" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>12</v>
@@ -602,9 +630,9 @@
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
         <v>0</v>
@@ -617,235 +645,235 @@
         <v>410528</v>
       </c>
       <c r="H4" s="4">
-        <f>C$2*G4*D$2/1000000000</f>
+        <f t="shared" ref="H4:H19" si="0">C$2*G4*D$2/1000000000</f>
         <v>0.14779007999999999</v>
       </c>
     </row>
-    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" ref="F5:F20" si="0">INT(G5/1000)*1000</f>
+        <f t="shared" ref="F5:F12" si="1">INT(G5/1000)*1000</f>
         <v>129000</v>
       </c>
       <c r="G5" s="1">
         <v>129535</v>
       </c>
       <c r="H5" s="4">
-        <f>C$2*G5*D$2/1000000000</f>
+        <f t="shared" si="0"/>
         <v>4.6632600000000003E-2</v>
       </c>
       <c r="J5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="M5" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
         <v>1</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>112000</v>
       </c>
       <c r="G6" s="1">
         <v>112165</v>
       </c>
       <c r="H6" s="4">
-        <f>C$2*G6*D$2/1000000000</f>
+        <f t="shared" si="0"/>
         <v>4.0379400000000003E-2</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6">
+        <v>17</v>
+      </c>
+      <c r="L6">
         <v>0</v>
       </c>
-      <c r="N6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="M6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>72000</v>
       </c>
       <c r="G7" s="1">
         <v>72115</v>
       </c>
       <c r="H7" s="4">
-        <f>C$2*G7*D$2/1000000000</f>
+        <f t="shared" si="0"/>
         <v>2.5961399999999999E-2</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-      <c r="N7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>99000</v>
       </c>
       <c r="G8" s="1">
         <v>99820</v>
       </c>
       <c r="H8" s="4">
-        <f>C$2*G8*D$2/1000000000</f>
+        <f t="shared" si="0"/>
         <v>3.59352E-2</v>
       </c>
       <c r="I8">
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>38</v>
-      </c>
-      <c r="M8">
-        <v>2</v>
-      </c>
-      <c r="N8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="L8">
+        <v>10</v>
+      </c>
+      <c r="M8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>241000</v>
       </c>
       <c r="G9" s="1">
         <v>241935</v>
       </c>
       <c r="H9" s="4">
-        <f>C$2*G9*D$2/1000000000</f>
+        <f t="shared" si="0"/>
         <v>8.7096599999999996E-2</v>
       </c>
       <c r="I9">
         <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>36</v>
-      </c>
-      <c r="M9">
-        <v>3</v>
-      </c>
-      <c r="N9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="L9">
+        <v>20</v>
+      </c>
+      <c r="M9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
         <v>3</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37000</v>
       </c>
       <c r="G10" s="1">
         <v>37533</v>
       </c>
       <c r="H10" s="4">
-        <f>C$2*G10*D$2/1000000000</f>
+        <f t="shared" si="0"/>
         <v>1.351188E-2</v>
       </c>
-      <c r="I10">
-        <v>4</v>
-      </c>
-      <c r="J10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <v>30</v>
+      </c>
+      <c r="M10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
         <v>7</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>52000</v>
       </c>
       <c r="G11" s="1">
         <v>52578</v>
       </c>
       <c r="H11" s="4">
-        <f>C$2*G11*D$2/1000000000</f>
+        <f t="shared" si="0"/>
         <v>1.892808E-2</v>
       </c>
-      <c r="I11">
-        <v>5</v>
-      </c>
-      <c r="J11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="J11" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>84000</v>
       </c>
       <c r="G12" s="1">
         <v>84469</v>
       </c>
       <c r="H12" s="4">
-        <f>C$2*G12*D$2/1000000000</f>
+        <f t="shared" si="0"/>
         <v>3.0408839999999999E-2</v>
       </c>
       <c r="I12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>4</v>
       </c>
@@ -853,24 +881,30 @@
         <v>4</v>
       </c>
       <c r="F13" s="1">
-        <f>INT(G13/1000)*1000</f>
+        <f t="shared" ref="F13:F19" si="2">INT(G13/1000)*1000</f>
         <v>142000</v>
       </c>
       <c r="G13" s="1">
         <v>142937</v>
       </c>
       <c r="H13" s="4">
-        <f>C$2*G13*D$2/1000000000</f>
+        <f t="shared" si="0"/>
         <v>5.1457320000000001E-2</v>
       </c>
       <c r="I13">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>4</v>
       </c>
@@ -878,18 +912,30 @@
         <v>5</v>
       </c>
       <c r="F14" s="1">
-        <f>INT(G14/1000)*1000</f>
+        <f t="shared" si="2"/>
         <v>54000</v>
       </c>
       <c r="G14" s="1">
         <v>54888</v>
       </c>
       <c r="H14" s="4">
-        <f>C$2*G14*D$2/1000000000</f>
+        <f t="shared" si="0"/>
         <v>1.9759680000000002E-2</v>
       </c>
-    </row>
-    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14" t="s">
+        <v>40</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>4</v>
       </c>
@@ -897,18 +943,24 @@
         <v>6</v>
       </c>
       <c r="F15" s="1">
-        <f>INT(G15/1000)*1000</f>
+        <f t="shared" si="2"/>
         <v>48000</v>
       </c>
       <c r="G15" s="1">
         <v>48120</v>
       </c>
       <c r="H15" s="4">
-        <f>C$2*G15*D$2/1000000000</f>
+        <f t="shared" si="0"/>
         <v>1.73232E-2</v>
       </c>
-    </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="J15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>4</v>
       </c>
@@ -916,24 +968,21 @@
         <v>8</v>
       </c>
       <c r="F16" s="1">
-        <f>INT(G16/1000)*1000</f>
+        <f t="shared" si="2"/>
         <v>44000</v>
       </c>
       <c r="G16" s="1">
         <v>44945</v>
       </c>
       <c r="H16" s="4">
-        <f>C$2*G16*D$2/1000000000</f>
+        <f t="shared" si="0"/>
         <v>1.6180199999999999E-2</v>
       </c>
-      <c r="J16" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="L16" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>4</v>
       </c>
@@ -941,33 +990,27 @@
         <v>9</v>
       </c>
       <c r="F17" s="1">
-        <f>INT(G17/1000)*1000</f>
+        <f t="shared" si="2"/>
         <v>33000</v>
       </c>
       <c r="G17" s="1">
         <v>33637</v>
       </c>
       <c r="H17" s="4">
-        <f>C$2*G17*D$2/1000000000</f>
+        <f t="shared" si="0"/>
         <v>1.210932E-2</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17" t="s">
-        <v>29</v>
+      <c r="J17" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17" t="s">
-        <v>28</v>
-      </c>
-      <c r="N17">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="4:14" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>4</v>
       </c>
@@ -975,171 +1018,167 @@
         <v>11</v>
       </c>
       <c r="F18" s="1">
-        <f>INT(G18/1000)*1000</f>
+        <f t="shared" si="2"/>
         <v>62000</v>
       </c>
       <c r="G18" s="1">
         <v>62228</v>
       </c>
       <c r="H18" s="4">
-        <f>C$2*G18*D$2/1000000000</f>
+        <f t="shared" si="0"/>
         <v>2.2402080000000001E-2</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>27</v>
+        <v>20</v>
+      </c>
+      <c r="K18">
+        <v>32</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18" t="s">
-        <v>26</v>
-      </c>
-      <c r="N18">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="4:14" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>4</v>
       </c>
       <c r="E19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F19" s="1">
-        <f>INT(G19/1000)*1000</f>
+        <f t="shared" si="2"/>
         <v>55000</v>
       </c>
       <c r="G19" s="1">
         <v>55895</v>
       </c>
       <c r="H19" s="4">
-        <f>C$2*G19*D$2/1000000000</f>
+        <f t="shared" si="0"/>
         <v>2.01222E-2</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="K19">
+        <v>32</v>
       </c>
       <c r="L19">
         <v>2</v>
       </c>
       <c r="M19" t="s">
-        <v>24</v>
-      </c>
-      <c r="N19">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="I20">
+    <row r="21" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="I21">
         <v>3</v>
       </c>
-      <c r="J20" t="s">
-        <v>23</v>
-      </c>
-      <c r="L20">
-        <v>3</v>
-      </c>
-      <c r="M20" t="s">
-        <v>22</v>
-      </c>
-      <c r="N20">
+      <c r="J21" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="I21">
-        <v>4</v>
-      </c>
-      <c r="J21" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21">
-        <v>4</v>
-      </c>
-      <c r="M21" t="s">
-        <v>20</v>
-      </c>
-      <c r="N21">
+    <row r="22" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D22" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D24" s="8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="22" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D22" s="7">
-        <v>1000000000</v>
-      </c>
-      <c r="I22">
-        <v>5</v>
-      </c>
-      <c r="J22" t="s">
-        <v>19</v>
-      </c>
-      <c r="L22">
-        <v>5</v>
-      </c>
-      <c r="M22" t="s">
-        <v>18</v>
-      </c>
-      <c r="N22">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D23" s="7">
-        <v>600000000</v>
-      </c>
-      <c r="I23">
-        <v>6</v>
-      </c>
-      <c r="J23" t="s">
-        <v>17</v>
-      </c>
-      <c r="L23">
-        <v>6</v>
-      </c>
-      <c r="M23" t="s">
-        <v>16</v>
-      </c>
-      <c r="N23">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D24" s="8">
-        <f>D23/D22</f>
-        <v>0.6</v>
-      </c>
-      <c r="I24">
-        <v>7</v>
-      </c>
-      <c r="J24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D25" s="9">
-        <f>D23/20</f>
-        <v>30000000</v>
-      </c>
-    </row>
-    <row r="26" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D26" s="7">
-        <v>10000000</v>
-      </c>
-    </row>
-    <row r="27" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D27" s="8">
-        <f>D26/D22</f>
-        <v>0.01</v>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D25" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D26" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D27" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0022EBE-CA85-42A1-BF2D-3D69939B3BC7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/faqs.xlsx
+++ b/docs/faqs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\Github\sporteth0\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE4E154-AC3F-4486-A1EB-811555C3D190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438854DD-888B-4629-9C53-6BBA310F38C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31725" yWindow="2355" windowWidth="19365" windowHeight="11955" activeTab="1" xr2:uid="{ED304670-DDB2-49C3-8B51-405BE1F15E00}"/>
+    <workbookView xWindow="29040" yWindow="3555" windowWidth="27135" windowHeight="12045" xr2:uid="{ED304670-DDB2-49C3-8B51-405BE1F15E00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="62">
   <si>
     <t>initialPost</t>
   </si>
@@ -214,6 +214,15 @@
   </si>
   <si>
     <t>Oracle contract was deployed to 0x133C77B6c77512509c0CF23d691DEA143C06Bb8F</t>
+  </si>
+  <si>
+    <t>Token contract was deployed to 0xf95D50a438Be52D70b381a0bC4322E9Fff067e6E</t>
+  </si>
+  <si>
+    <t>Betting contract was deployed to 0x1B0f874aA06d229E4D2Ec63C114b749FD8a94C58</t>
+  </si>
+  <si>
+    <t>Oracle contract was deployed to 0x84b9b3a396F65E270A0E69ab9679381c551f0277</t>
   </si>
 </sst>
 </file>
@@ -227,7 +236,7 @@
     <numFmt numFmtId="167" formatCode="0.0%;[Red]\-0.0%"/>
     <numFmt numFmtId="168" formatCode="0.00E+00;[Red]0.00E+00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,6 +251,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -264,7 +279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -279,6 +294,9 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -594,10 +612,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EC49C27-89B5-47DB-92FE-5D6F5C7DABAF}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="C2:M32"/>
+  <dimension ref="C2:S37"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,7 +624,7 @@
     <col min="5" max="6" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C2">
         <v>30</v>
       </c>
@@ -614,7 +632,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C3" s="5"/>
       <c r="D3" s="6" t="s">
         <v>27</v>
@@ -630,7 +648,7 @@
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:19" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>29</v>
       </c>
@@ -649,7 +667,7 @@
         <v>0.14779007999999999</v>
       </c>
     </row>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:19" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>29</v>
       </c>
@@ -673,8 +691,11 @@
       <c r="L5" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="S5" s="10">
+        <v>1E+18</v>
+      </c>
+    </row>
+    <row r="6" spans="3:19" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>29</v>
       </c>
@@ -705,7 +726,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:19" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>29</v>
       </c>
@@ -736,7 +757,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:19" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>29</v>
       </c>
@@ -766,8 +787,11 @@
       <c r="M8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="S8">
+        <v>1E+19</v>
+      </c>
+    </row>
+    <row r="9" spans="3:19" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>29</v>
       </c>
@@ -798,7 +822,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:19" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>29</v>
       </c>
@@ -823,7 +847,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:19" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>29</v>
       </c>
@@ -845,7 +869,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:19" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>29</v>
       </c>
@@ -873,7 +897,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:19" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>4</v>
       </c>
@@ -903,8 +927,14 @@
       <c r="M13" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="R13">
+        <v>2.9129304031705298E+18</v>
+      </c>
+      <c r="S13">
+        <v>7510499</v>
+      </c>
+    </row>
+    <row r="14" spans="3:19" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>4</v>
       </c>
@@ -934,8 +964,11 @@
       <c r="M14" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="R14">
+        <v>1E+19</v>
+      </c>
+    </row>
+    <row r="15" spans="3:19" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>4</v>
       </c>
@@ -960,7 +993,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:19" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>4</v>
       </c>
@@ -1163,6 +1196,21 @@
     <row r="32" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G37" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1175,7 +1223,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0022EBE-CA85-42A1-BF2D-3D69939B3BC7}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/docs/faqs.xlsx
+++ b/docs/faqs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\Github\sporteth0\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438854DD-888B-4629-9C53-6BBA310F38C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B025F97-1004-435C-8E96-FCBCC876F0D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29040" yWindow="3555" windowWidth="27135" windowHeight="12045" xr2:uid="{ED304670-DDB2-49C3-8B51-405BE1F15E00}"/>
+    <workbookView xWindow="25320" yWindow="3480" windowWidth="27135" windowHeight="12045" xr2:uid="{ED304670-DDB2-49C3-8B51-405BE1F15E00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -614,8 +614,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="C2:S37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1015,7 +1015,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>4</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>4</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>4</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:14" x14ac:dyDescent="0.25">
       <c r="I20">
         <v>2</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:14" x14ac:dyDescent="0.25">
       <c r="I21">
         <v>3</v>
       </c>
@@ -1133,20 +1133,23 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D22" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D23" s="7" t="s">
         <v>31</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="24" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N23">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="24" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D24" s="8" t="s">
         <v>32</v>
       </c>
@@ -1156,8 +1159,11 @@
       <c r="K24" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="25" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N24">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="25" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D25" s="9" t="s">
         <v>33</v>
       </c>
@@ -1168,32 +1174,32 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D26" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D27" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>58</v>
       </c>

--- a/docs/faqs.xlsx
+++ b/docs/faqs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\Github\sporteth0\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B025F97-1004-435C-8E96-FCBCC876F0D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506CE7C6-8A89-4B0B-93A7-5FC5950471E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25320" yWindow="3480" windowWidth="27135" windowHeight="12045" xr2:uid="{ED304670-DDB2-49C3-8B51-405BE1F15E00}"/>
+    <workbookView xWindow="3510" yWindow="2025" windowWidth="25875" windowHeight="11295" xr2:uid="{ED304670-DDB2-49C3-8B51-405BE1F15E00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="80">
   <si>
     <t>initialPost</t>
   </si>
@@ -207,22 +207,76 @@
     <t>tie or no contest</t>
   </si>
   <si>
-    <t>Token contract was deployed to 0x2BC4A81c9Da4c6b561d37Ab8016A45aC74259bcE</t>
-  </si>
-  <si>
-    <t>Betting contract was deployed to 0x8Fa2C424b764E4D0D751D2DDCE346758FdDF1c83</t>
-  </si>
-  <si>
-    <t>Oracle contract was deployed to 0x133C77B6c77512509c0CF23d691DEA143C06Bb8F</t>
-  </si>
-  <si>
-    <t>Token contract was deployed to 0xf95D50a438Be52D70b381a0bC4322E9Fff067e6E</t>
-  </si>
-  <si>
-    <t>Betting contract was deployed to 0x1B0f874aA06d229E4D2Ec63C114b749FD8a94C58</t>
-  </si>
-  <si>
-    <t>Oracle contract was deployed to 0x84b9b3a396F65E270A0E69ab9679381c551f0277</t>
+    <t>Token</t>
+  </si>
+  <si>
+    <t>transferSpecial/Deposit</t>
+  </si>
+  <si>
+    <t>Oracle</t>
+  </si>
+  <si>
+    <t>was</t>
+  </si>
+  <si>
+    <t>deployed</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>0x62584e3D4d71F48314D843EE7eA4a6C7CdCFa52e</t>
+  </si>
+  <si>
+    <t>Betting</t>
+  </si>
+  <si>
+    <t>0x9Ea51293Dfb424798638f5Ca0317d05F51d96a99</t>
+  </si>
+  <si>
+    <t>0x9b4b402eA6eaE209Dc7741eb343D0dEDA17b6eE3</t>
+  </si>
+  <si>
+    <t>python</t>
+  </si>
+  <si>
+    <t>update</t>
+  </si>
+  <si>
+    <t>settle</t>
+  </si>
+  <si>
+    <t>init</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>VoteNo</t>
+  </si>
+  <si>
+    <t>VoteYes</t>
+  </si>
+  <si>
+    <t>b'uxeQ~\xf2q\xa9o\xb397\xaa\xfe\x17\x12&amp;StR\x9a\xc4\xb3\x1a\xbb6Q\xb3\x84\xa5\x03\x91'</t>
+  </si>
+  <si>
+    <t>0x5ed8a6bc000000000000000000000000ca511440bce7671c44962290425254029de4c2ed</t>
+  </si>
+  <si>
+    <t>0x000000000000000000000000ca511440bce7671c44962290425254029de4c2ed</t>
+  </si>
+  <si>
+    <t>0x5ed8a6bc000000000000000000000000</t>
+  </si>
+  <si>
+    <t>0x45f7e987231279a4DE85c5c8c375c78ef2092Dd9</t>
+  </si>
+  <si>
+    <t>0xF1da045897d3A41eED212Fd15f1a13a6eF1Fb556</t>
+  </si>
+  <si>
+    <t>0xd6F61ee5472dD41b6784AcDCAda6155871EFddaA</t>
   </si>
 </sst>
 </file>
@@ -236,7 +290,7 @@
     <numFmt numFmtId="167" formatCode="0.0%;[Red]\-0.0%"/>
     <numFmt numFmtId="168" formatCode="0.00E+00;[Red]0.00E+00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,6 +309,23 @@
     <font>
       <sz val="11"/>
       <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFA2A3BD"/>
+      <name val="Nunito Sans"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF24272A"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF569CD6"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
@@ -279,7 +350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -297,6 +368,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -612,10 +689,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EC49C27-89B5-47DB-92FE-5D6F5C7DABAF}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="C2:S37"/>
+  <dimension ref="B2:S44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1015,7 +1092,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>4</v>
       </c>
@@ -1043,7 +1120,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>4</v>
       </c>
@@ -1077,7 +1154,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>4</v>
       </c>
@@ -1111,7 +1188,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="I20">
         <v>2</v>
       </c>
@@ -1122,7 +1199,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="I21">
         <v>3</v>
       </c>
@@ -1133,12 +1210,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D22" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>17.3</v>
+      </c>
       <c r="D23" s="7" t="s">
         <v>31</v>
       </c>
@@ -1149,7 +1229,10 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="24" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>3.8879999999999999</v>
+      </c>
       <c r="D24" s="8" t="s">
         <v>32</v>
       </c>
@@ -1162,8 +1245,15 @@
       <c r="N24">
         <v>160000</v>
       </c>
-    </row>
-    <row r="25" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="Q24">
+        <v>2E+19</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <f>B24+B23</f>
+        <v>21.188000000000002</v>
+      </c>
       <c r="D25" s="9" t="s">
         <v>33</v>
       </c>
@@ -1173,50 +1263,185 @@
       <c r="K25" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="26" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="Q25" s="13">
+        <v>1E+18</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D26" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D27" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="30" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="K28">
+        <v>285</v>
+      </c>
+      <c r="L28" s="1">
+        <f>K28/0.95</f>
+        <v>300</v>
+      </c>
+      <c r="M28">
+        <v>140.4</v>
+      </c>
+      <c r="N28" s="4">
+        <f>M28*L28/1000</f>
+        <v>42.12</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="K29">
+        <v>909</v>
+      </c>
+      <c r="L29" s="1">
+        <f>K29/0.95</f>
+        <v>956.84210526315792</v>
+      </c>
+      <c r="M29">
+        <v>44.01</v>
+      </c>
+      <c r="N29" s="4">
+        <f>M29*L29/1000</f>
+        <v>42.110621052631579</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="31" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>62</v>
+      </c>
+      <c r="L30">
+        <f>L29/L28</f>
+        <v>3.1894736842105265</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="4:14" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="E31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="35" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G35" t="s">
+      <c r="E32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>73</v>
+      </c>
+      <c r="E34" s="10"/>
+    </row>
+    <row r="35" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D35" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="D36" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="D37" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="C38" s="14">
+        <v>45157</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C39" s="14">
+        <v>45157</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C40" s="14">
+        <v>45157</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C41" s="14">
+        <v>45157</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>56</v>
+      </c>
+      <c r="E42" t="s">
+        <v>77</v>
+      </c>
+      <c r="F42" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="36" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G36" t="s">
+      <c r="G42" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="37" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G37" t="s">
+      <c r="H42" t="s">
         <v>61</v>
+      </c>
+      <c r="I42" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>63</v>
+      </c>
+      <c r="E43" t="s">
+        <v>78</v>
+      </c>
+      <c r="F43" t="s">
+        <v>59</v>
+      </c>
+      <c r="G43" t="s">
+        <v>60</v>
+      </c>
+      <c r="H43" t="s">
+        <v>61</v>
+      </c>
+      <c r="I43" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>58</v>
+      </c>
+      <c r="E44" t="s">
+        <v>79</v>
+      </c>
+      <c r="F44" t="s">
+        <v>59</v>
+      </c>
+      <c r="G44" t="s">
+        <v>60</v>
+      </c>
+      <c r="H44" t="s">
+        <v>61</v>
+      </c>
+      <c r="I44" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1227,12 +1452,68 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0022EBE-CA85-42A1-BF2D-3D69939B3BC7}">
-  <dimension ref="A1"/>
+  <dimension ref="E3:E12"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="5" max="5" width="23.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/faqs.xlsx
+++ b/docs/faqs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\Github\sporteth0\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506CE7C6-8A89-4B0B-93A7-5FC5950471E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F207E508-48C6-426D-920A-B3B9F220488A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="2025" windowWidth="25875" windowHeight="11295" xr2:uid="{ED304670-DDB2-49C3-8B51-405BE1F15E00}"/>
+    <workbookView xWindow="31230" yWindow="4365" windowWidth="21600" windowHeight="11295" xr2:uid="{ED304670-DDB2-49C3-8B51-405BE1F15E00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="78">
   <si>
     <t>initialPost</t>
   </si>
@@ -216,15 +216,6 @@
     <t>Oracle</t>
   </si>
   <si>
-    <t>was</t>
-  </si>
-  <si>
-    <t>deployed</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
     <t>0x62584e3D4d71F48314D843EE7eA4a6C7CdCFa52e</t>
   </si>
   <si>
@@ -277,6 +268,9 @@
   </si>
   <si>
     <t>0xd6F61ee5472dD41b6784AcDCAda6155871EFddaA</t>
+  </si>
+  <si>
+    <t>1234000000000000000000n</t>
   </si>
 </sst>
 </file>
@@ -689,10 +683,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EC49C27-89B5-47DB-92FE-5D6F5C7DABAF}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B2:S44"/>
+  <dimension ref="B2:S49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1276,6 +1270,10 @@
       <c r="D27" s="8" t="s">
         <v>34</v>
       </c>
+      <c r="J27">
+        <f>30*20</f>
+        <v>600</v>
+      </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
@@ -1317,7 +1315,7 @@
         <v>56</v>
       </c>
       <c r="E30" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L30">
         <f>L29/L28</f>
@@ -1326,10 +1324,10 @@
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E31" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.25">
@@ -1337,111 +1335,101 @@
         <v>58</v>
       </c>
       <c r="E32" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E34" s="10"/>
     </row>
-    <row r="35" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="D35" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="3:9" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:5" ht="15.75" x14ac:dyDescent="0.3">
       <c r="D36" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" spans="3:9" ht="15.75" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" ht="15.75" x14ac:dyDescent="0.3">
       <c r="D37" s="11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="38" spans="3:9" ht="15.75" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" ht="15.75" x14ac:dyDescent="0.3">
       <c r="C38" s="14">
         <v>45157</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39" spans="3:9" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C39" s="14">
         <v>45157</v>
       </c>
     </row>
-    <row r="40" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C40" s="14">
         <v>45157</v>
       </c>
     </row>
-    <row r="41" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C41" s="14">
         <v>45157</v>
       </c>
     </row>
-    <row r="42" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
         <v>56</v>
       </c>
       <c r="E42" t="s">
-        <v>77</v>
-      </c>
-      <c r="F42" t="s">
-        <v>59</v>
-      </c>
-      <c r="G42" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
         <v>60</v>
       </c>
-      <c r="H42" t="s">
-        <v>61</v>
-      </c>
-      <c r="I42" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D43" t="s">
-        <v>63</v>
-      </c>
       <c r="E43" t="s">
-        <v>78</v>
-      </c>
-      <c r="F43" t="s">
-        <v>59</v>
-      </c>
-      <c r="G43" t="s">
-        <v>60</v>
-      </c>
-      <c r="H43" t="s">
-        <v>61</v>
-      </c>
-      <c r="I43" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
         <v>58</v>
       </c>
       <c r="E44" t="s">
-        <v>79</v>
-      </c>
-      <c r="F44" t="s">
-        <v>59</v>
-      </c>
-      <c r="G44" t="s">
-        <v>60</v>
-      </c>
-      <c r="H44" t="s">
-        <v>61</v>
-      </c>
-      <c r="I44" t="s">
-        <v>79</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E46">
+        <v>1.234E+21</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E47">
+        <f>E46/1234</f>
+        <v>1E+18</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E48">
+        <v>1.234E+18</v>
+      </c>
+    </row>
+    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E49">
+        <v>112300000000000</v>
       </c>
     </row>
   </sheetData>
@@ -1452,6 +1440,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0022EBE-CA85-42A1-BF2D-3D69939B3BC7}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="E3:E12"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
@@ -1480,37 +1469,37 @@
     </row>
     <row r="6" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/docs/faqs.xlsx
+++ b/docs/faqs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\Github\sporteth0\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F207E508-48C6-426D-920A-B3B9F220488A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506CE7C6-8A89-4B0B-93A7-5FC5950471E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31230" yWindow="4365" windowWidth="21600" windowHeight="11295" xr2:uid="{ED304670-DDB2-49C3-8B51-405BE1F15E00}"/>
+    <workbookView xWindow="3510" yWindow="2025" windowWidth="25875" windowHeight="11295" xr2:uid="{ED304670-DDB2-49C3-8B51-405BE1F15E00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="80">
   <si>
     <t>initialPost</t>
   </si>
@@ -216,6 +216,15 @@
     <t>Oracle</t>
   </si>
   <si>
+    <t>was</t>
+  </si>
+  <si>
+    <t>deployed</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
     <t>0x62584e3D4d71F48314D843EE7eA4a6C7CdCFa52e</t>
   </si>
   <si>
@@ -268,9 +277,6 @@
   </si>
   <si>
     <t>0xd6F61ee5472dD41b6784AcDCAda6155871EFddaA</t>
-  </si>
-  <si>
-    <t>1234000000000000000000n</t>
   </si>
 </sst>
 </file>
@@ -683,10 +689,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EC49C27-89B5-47DB-92FE-5D6F5C7DABAF}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B2:S49"/>
+  <dimension ref="B2:S44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1270,10 +1276,6 @@
       <c r="D27" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="J27">
-        <f>30*20</f>
-        <v>600</v>
-      </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
@@ -1315,7 +1317,7 @@
         <v>56</v>
       </c>
       <c r="E30" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="L30">
         <f>L29/L28</f>
@@ -1324,10 +1326,10 @@
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E31" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.25">
@@ -1335,101 +1337,111 @@
         <v>58</v>
       </c>
       <c r="E32" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E34" s="10"/>
     </row>
-    <row r="35" spans="3:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="D35" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="3:5" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="D36" s="11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5" ht="15.75" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="D37" s="11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="38" spans="3:5" ht="15.75" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="C38" s="14">
         <v>45157</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C39" s="14">
         <v>45157</v>
       </c>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C40" s="14">
         <v>45157</v>
       </c>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C41" s="14">
         <v>45157</v>
       </c>
     </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
         <v>56</v>
       </c>
       <c r="E42" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="F42" t="s">
+        <v>59</v>
+      </c>
+      <c r="G42" t="s">
+        <v>60</v>
+      </c>
+      <c r="H42" t="s">
+        <v>61</v>
+      </c>
+      <c r="I42" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
+        <v>63</v>
+      </c>
+      <c r="E43" t="s">
+        <v>78</v>
+      </c>
+      <c r="F43" t="s">
+        <v>59</v>
+      </c>
+      <c r="G43" t="s">
         <v>60</v>
       </c>
-      <c r="E43" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H43" t="s">
+        <v>61</v>
+      </c>
+      <c r="I43" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
         <v>58</v>
       </c>
       <c r="E44" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E45" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E46">
-        <v>1.234E+21</v>
-      </c>
-    </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E47">
-        <f>E46/1234</f>
-        <v>1E+18</v>
-      </c>
-    </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E48">
-        <v>1.234E+18</v>
-      </c>
-    </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E49">
-        <v>112300000000000</v>
+        <v>79</v>
+      </c>
+      <c r="F44" t="s">
+        <v>59</v>
+      </c>
+      <c r="G44" t="s">
+        <v>60</v>
+      </c>
+      <c r="H44" t="s">
+        <v>61</v>
+      </c>
+      <c r="I44" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1440,7 +1452,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0022EBE-CA85-42A1-BF2D-3D69939B3BC7}">
-  <sheetPr codeName="Sheet2"/>
   <dimension ref="E3:E12"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
@@ -1469,37 +1480,37 @@
     </row>
     <row r="6" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/docs/faqs.xlsx
+++ b/docs/faqs.xlsx
@@ -5,16 +5,17 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\Github\sporteth0\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\Github\sporteth\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506CE7C6-8A89-4B0B-93A7-5FC5950471E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C555E4-6BF2-4CD0-8E43-6B7207E6532A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="2025" windowWidth="25875" windowHeight="11295" xr2:uid="{ED304670-DDB2-49C3-8B51-405BE1F15E00}"/>
+    <workbookView xWindow="1770" yWindow="2910" windowWidth="23940" windowHeight="11295" activeTab="1" xr2:uid="{ED304670-DDB2-49C3-8B51-405BE1F15E00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="gas" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="113">
   <si>
     <t>initialPost</t>
   </si>
@@ -210,9 +211,6 @@
     <t>Token</t>
   </si>
   <si>
-    <t>transferSpecial/Deposit</t>
-  </si>
-  <si>
     <t>Oracle</t>
   </si>
   <si>
@@ -237,27 +235,6 @@
     <t>0x9b4b402eA6eaE209Dc7741eb343D0dEDA17b6eE3</t>
   </si>
   <si>
-    <t>python</t>
-  </si>
-  <si>
-    <t>update</t>
-  </si>
-  <si>
-    <t>settle</t>
-  </si>
-  <si>
-    <t>init</t>
-  </si>
-  <si>
-    <t>process</t>
-  </si>
-  <si>
-    <t>VoteNo</t>
-  </si>
-  <si>
-    <t>VoteYes</t>
-  </si>
-  <si>
     <t>b'uxeQ~\xf2q\xa9o\xb397\xaa\xfe\x17\x12&amp;StR\x9a\xc4\xb3\x1a\xbb6Q\xb3\x84\xa5\x03\x91'</t>
   </si>
   <si>
@@ -277,20 +254,144 @@
   </si>
   <si>
     <t>0xd6F61ee5472dD41b6784AcDCAda6155871EFddaA</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>Initial slate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wednesday </t>
+  </si>
+  <si>
+    <t>settlement</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Tues</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>odds update</t>
+  </si>
+  <si>
+    <t>Friday*</t>
+  </si>
+  <si>
+    <t>Thursday*</t>
+  </si>
+  <si>
+    <t>Wednesday*</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>all times 12:00-13:00 GMT</t>
+  </si>
+  <si>
+    <t>12:00 GMT is 8:00 AM New York Time in summer</t>
+  </si>
+  <si>
+    <t>12:00 GMT is 7:00 AM New York Time in winter</t>
+  </si>
+  <si>
+    <t>0xEaFE27B34650ff68b085928541e567A9873216A9</t>
+  </si>
+  <si>
+    <t>0x55210ffc90fB44AE08983A1D87De7A9AdaE04BC1</t>
+  </si>
+  <si>
+    <t>0xB17452c78bdA4ddea7F3Da60BF381d6230a2Dbc6</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>send @ 12:00-13:00 GMT</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>betContracts</t>
+  </si>
+  <si>
+    <t>    uint32</t>
+  </si>
+  <si>
+    <t>    uint64</t>
+  </si>
+  <si>
+    <t>    addres</t>
+  </si>
+  <si>
+    <t>matchNum</t>
+  </si>
+  <si>
+    <t>pick</t>
+  </si>
+  <si>
+    <t>betAmount</t>
+  </si>
+  <si>
+    <t>payoff</t>
+  </si>
+  <si>
+    <t>s bettor</t>
+  </si>
+  <si>
+    <t>lasts from settlement to settlement</t>
+  </si>
+  <si>
+    <t>from  0 to 31</t>
+  </si>
+  <si>
+    <t>0 or 1</t>
+  </si>
+  <si>
+    <t>amount bet, 1e4 represents 1 avax</t>
+  </si>
+  <si>
+    <t>gross payout for bettor</t>
+  </si>
+  <si>
+    <t>bettor address</t>
+  </si>
+  <si>
+    <t>userStruct</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,##0;[Red]#,##0"/>
     <numFmt numFmtId="165" formatCode="#,##0.00;[Red]#,##0.00"/>
     <numFmt numFmtId="166" formatCode="0E+00;[Red]0E+00"/>
     <numFmt numFmtId="167" formatCode="0.0%;[Red]\-0.0%"/>
     <numFmt numFmtId="168" formatCode="0.00E+00;[Red]0.00E+00"/>
+    <numFmt numFmtId="169" formatCode="0.00%;[Red]\-0.00%"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,18 +430,177 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -350,7 +610,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -374,6 +634,51 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -691,8 +996,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:S44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1317,7 +1622,7 @@
         <v>56</v>
       </c>
       <c r="E30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L30">
         <f>L29/L28</f>
@@ -1326,23 +1631,23 @@
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" t="s">
         <v>63</v>
-      </c>
-      <c r="E31" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E34" s="10"/>
     </row>
@@ -1353,12 +1658,12 @@
     </row>
     <row r="36" spans="3:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="D36" s="11" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="3:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="D37" s="11" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="3:9" ht="15.75" x14ac:dyDescent="0.3">
@@ -1366,7 +1671,7 @@
         <v>45157</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="3:9" x14ac:dyDescent="0.25">
@@ -1389,59 +1694,59 @@
         <v>56</v>
       </c>
       <c r="E42" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F42" t="s">
+        <v>58</v>
+      </c>
+      <c r="G42" t="s">
         <v>59</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>60</v>
       </c>
-      <c r="H42" t="s">
-        <v>61</v>
-      </c>
       <c r="I42" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E43" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F43" t="s">
+        <v>58</v>
+      </c>
+      <c r="G43" t="s">
         <v>59</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>60</v>
       </c>
-      <c r="H43" t="s">
-        <v>61</v>
-      </c>
       <c r="I43" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
+        <v>57</v>
+      </c>
+      <c r="E44" t="s">
+        <v>71</v>
+      </c>
+      <c r="F44" t="s">
         <v>58</v>
       </c>
-      <c r="E44" t="s">
-        <v>79</v>
-      </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>59</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>60</v>
       </c>
-      <c r="H44" t="s">
-        <v>61</v>
-      </c>
       <c r="I44" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1451,65 +1756,1005 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0022EBE-CA85-42A1-BF2D-3D69939B3BC7}">
-  <dimension ref="E3:E12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F52E05E7-B165-45C0-8B6B-813B2086E5D6}">
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="C3:X31"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="7" max="11" width="7.42578125" customWidth="1"/>
+    <col min="13" max="13" width="26.7109375" customWidth="1"/>
+    <col min="14" max="14" width="17.85546875" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" customWidth="1"/>
+    <col min="23" max="23" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3" t="s">
+    <row r="3" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>30</v>
+      </c>
+      <c r="D3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C4" s="5"/>
+      <c r="D4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" ref="F5:F20" si="0">INT(G5/1000)*1000</f>
+        <v>410000</v>
+      </c>
+      <c r="G5" s="1">
+        <v>410528</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="4">
+        <f t="shared" ref="L5:L20" si="1">C$2*G5*D$2/1000000000</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>129000</v>
+      </c>
+      <c r="G6" s="1">
+        <v>129535</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>112000</v>
+      </c>
+      <c r="G7" s="1">
+        <v>112165</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>72000</v>
+      </c>
+      <c r="G8" s="1">
+        <v>72115</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P8">
+        <v>2</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>45</v>
+      </c>
+      <c r="W8">
+        <f>2^8</f>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="9" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>99000</v>
+      </c>
+      <c r="G9" s="1">
+        <v>99820</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>14</v>
+      </c>
+      <c r="P9">
+        <v>10</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="0"/>
+        <v>241000</v>
+      </c>
+      <c r="G10" s="1">
+        <v>241935</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>37</v>
+      </c>
+      <c r="P10">
+        <v>20</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="0"/>
+        <v>37000</v>
+      </c>
+      <c r="G11" s="1">
+        <v>37533</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>30</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>48</v>
+      </c>
+      <c r="W11">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="0"/>
+        <v>52000</v>
+      </c>
+      <c r="G12" s="1">
+        <v>52578</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="W12">
+        <f>24*365</f>
+        <v>8760</v>
+      </c>
+    </row>
+    <row r="13" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="0"/>
+        <v>84000</v>
+      </c>
+      <c r="G13" s="1">
+        <v>84469</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13" t="s">
+        <v>38</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="0"/>
+        <v>142000</v>
+      </c>
+      <c r="G14" s="1">
+        <v>142937</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>39</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>50</v>
+      </c>
+      <c r="W14" s="43">
+        <f>(1+W11)^W12</f>
+        <v>9.4341111137975214E+18</v>
+      </c>
+    </row>
+    <row r="15" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="0"/>
+        <v>54000</v>
+      </c>
+      <c r="G15" s="1">
+        <v>54888</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>40</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>51</v>
+      </c>
+      <c r="W15">
+        <f>1000000</f>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="16" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="0"/>
+        <v>48000</v>
+      </c>
+      <c r="G16" s="1">
+        <v>48120</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>15</v>
+      </c>
+      <c r="W16" s="5">
+        <f>W15*1000</f>
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="17" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="0"/>
+        <v>44000</v>
+      </c>
+      <c r="G17" s="1">
+        <v>44945</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="W17" s="5">
+        <f>W16*1000</f>
+        <v>1000000000000</v>
+      </c>
+      <c r="X17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="0"/>
+        <v>33000</v>
+      </c>
+      <c r="G18" s="1">
+        <v>33637</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>53</v>
+      </c>
+      <c r="W18" s="5">
+        <f>W17*1000</f>
+        <v>1000000000000000</v>
+      </c>
+    </row>
+    <row r="19" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="0"/>
+        <v>62000</v>
+      </c>
+      <c r="G19" s="1">
+        <v>62228</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19" t="s">
+        <v>20</v>
+      </c>
+      <c r="O19">
+        <v>32</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>54</v>
+      </c>
+      <c r="W19" s="5">
+        <f>W18*1000</f>
+        <v>1E+18</v>
+      </c>
+    </row>
+    <row r="20" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="0"/>
+        <v>55000</v>
+      </c>
+      <c r="G20" s="1">
+        <v>55895</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>19</v>
+      </c>
+      <c r="O20">
+        <v>32</v>
+      </c>
+      <c r="P20">
+        <v>2</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="M21">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>18</v>
+      </c>
+      <c r="O21">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="E22" s="7">
+        <v>100000000000000</v>
+      </c>
+      <c r="F22" s="1">
+        <f>1000000000000000000</f>
+        <v>1E+18</v>
+      </c>
+      <c r="M22">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>16</v>
+      </c>
+      <c r="O22">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="E23" s="7">
+        <v>5000000000000</v>
+      </c>
+      <c r="F23">
+        <f>0.05*F22</f>
+        <v>5E+16</v>
+      </c>
+      <c r="G23">
+        <f>F23/1000000000000000000</f>
+        <v>0.05</v>
+      </c>
+      <c r="P23" t="s">
+        <v>97</v>
+      </c>
+      <c r="T23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="P24" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>17</v>
+      </c>
+      <c r="R24" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="P25" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>101</v>
+      </c>
+      <c r="R25" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="P26" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>102</v>
+      </c>
+      <c r="R26" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="4" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E4" t="s">
+      <c r="F27" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="P27" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>103</v>
+      </c>
+      <c r="R27" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="P28" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>104</v>
+      </c>
+      <c r="R28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="5" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F29" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="P29" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>105</v>
+      </c>
+      <c r="R29" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="F31" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0022EBE-CA85-42A1-BF2D-3D69939B3BC7}">
+  <dimension ref="D3:K25"/>
+  <sheetViews>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="26.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>95</v>
+      </c>
       <c r="E5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="1">
+        <v>100000</v>
+      </c>
+      <c r="J5" s="43">
+        <v>1000000</v>
+      </c>
+      <c r="K5" s="5">
+        <f>J5*1000</f>
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="6" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" s="44">
+        <f>0.002</f>
+        <v>2E-3</v>
+      </c>
+      <c r="J6">
+        <v>133333</v>
+      </c>
+      <c r="K6" s="5">
+        <f>J6*1000</f>
+        <v>133333000</v>
+      </c>
+    </row>
+    <row r="7" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D7" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7" s="1">
+        <f>J5*0.002</f>
+        <v>2000</v>
+      </c>
+      <c r="K7" s="5">
+        <f>J7*1000</f>
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="8" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D8" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9">
+        <f>H6*H5</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D10" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="26"/>
+      <c r="H10" s="5">
+        <f>H9*1000</f>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="11" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="26"/>
+    </row>
+    <row r="12" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D17" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D19" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" s="29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D21" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="F21" s="26"/>
+    </row>
+    <row r="22" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22" s="26"/>
+    </row>
+    <row r="23" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D23" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D24" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" s="15" t="s">
         <v>72</v>
       </c>
     </row>

--- a/docs/faqs.xlsx
+++ b/docs/faqs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\Github\sporteth\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C555E4-6BF2-4CD0-8E43-6B7207E6532A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603D6057-5DD6-44AF-9646-0BF0BD661A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1770" yWindow="2910" windowWidth="23940" windowHeight="11295" activeTab="1" xr2:uid="{ED304670-DDB2-49C3-8B51-405BE1F15E00}"/>
+    <workbookView xWindow="35805" yWindow="2145" windowWidth="16260" windowHeight="12930" activeTab="2" xr2:uid="{ED304670-DDB2-49C3-8B51-405BE1F15E00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="114">
   <si>
     <t>initialPost</t>
   </si>
@@ -298,21 +298,12 @@
     <t>Thursday*</t>
   </si>
   <si>
-    <t>Wednesday*</t>
-  </si>
-  <si>
     <t>Data</t>
   </si>
   <si>
     <t>all times 12:00-13:00 GMT</t>
   </si>
   <si>
-    <t>12:00 GMT is 8:00 AM New York Time in summer</t>
-  </si>
-  <si>
-    <t>12:00 GMT is 7:00 AM New York Time in winter</t>
-  </si>
-  <si>
     <t>0xEaFE27B34650ff68b085928541e567A9873216A9</t>
   </si>
   <si>
@@ -325,9 +316,6 @@
     <t>t</t>
   </si>
   <si>
-    <t>send @ 12:00-13:00 GMT</t>
-  </si>
-  <si>
     <t>Wednesday</t>
   </si>
   <si>
@@ -377,6 +365,21 @@
   </si>
   <si>
     <t>userStruct</t>
+  </si>
+  <si>
+    <t>outcomes/new schedule</t>
+  </si>
+  <si>
+    <t>odds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friday </t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>sent 0:00-3:00 GMT/Processed 14:00 GMT</t>
   </si>
 </sst>
 </file>
@@ -481,7 +484,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -556,43 +559,6 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -606,11 +572,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -649,13 +637,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -666,19 +649,32 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1760,7 +1756,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="C3:X31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -2127,7 +2123,7 @@
       <c r="Q14" t="s">
         <v>50</v>
       </c>
-      <c r="W14" s="43">
+      <c r="W14" s="36">
         <f>(1+W11)^W12</f>
         <v>9.4341111137975214E+18</v>
       </c>
@@ -2234,7 +2230,7 @@
         <v>1000000000000</v>
       </c>
       <c r="X17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="4:24" x14ac:dyDescent="0.25">
@@ -2395,43 +2391,43 @@
         <v>0.05</v>
       </c>
       <c r="P23" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="T23" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="P24" s="45" t="s">
-        <v>98</v>
+      <c r="P24" s="38" t="s">
+        <v>94</v>
       </c>
       <c r="Q24" t="s">
         <v>17</v>
       </c>
       <c r="R24" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="P25" s="45" t="s">
+      <c r="P25" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>97</v>
+      </c>
+      <c r="R25" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="P26" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q26" t="s">
         <v>98</v>
       </c>
-      <c r="Q25" t="s">
-        <v>101</v>
-      </c>
-      <c r="R25" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="26" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="P26" s="45" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>102</v>
-      </c>
       <c r="R26" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="4:24" x14ac:dyDescent="0.25">
@@ -2439,16 +2435,16 @@
         <v>56</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="P27" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="P27" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q27" t="s">
         <v>99</v>
       </c>
-      <c r="Q27" t="s">
-        <v>103</v>
-      </c>
       <c r="R27" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="4:24" x14ac:dyDescent="0.25">
@@ -2456,16 +2452,16 @@
         <v>62</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="P28" s="45" t="s">
-        <v>99</v>
+        <v>88</v>
+      </c>
+      <c r="P28" s="38" t="s">
+        <v>95</v>
       </c>
       <c r="Q28" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="R28" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="4:24" x14ac:dyDescent="0.25">
@@ -2473,21 +2469,21 @@
         <v>57</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="P29" s="45" t="s">
-        <v>100</v>
+        <v>89</v>
+      </c>
+      <c r="P29" s="38" t="s">
+        <v>96</v>
       </c>
       <c r="Q29" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="R29" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="4:24" x14ac:dyDescent="0.25">
       <c r="F31" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2497,35 +2493,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0022EBE-CA85-42A1-BF2D-3D69939B3BC7}">
-  <dimension ref="D3:K25"/>
+  <dimension ref="D4:K25"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="26.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" customWidth="1"/>
     <col min="11" max="11" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D3" t="s">
-        <v>90</v>
-      </c>
-    </row>
     <row r="4" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" t="s">
-        <v>95</v>
-      </c>
       <c r="E5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>3</v>
@@ -2533,7 +2521,7 @@
       <c r="H5" s="1">
         <v>100000</v>
       </c>
-      <c r="J5" s="43">
+      <c r="J5" s="36">
         <v>1000000</v>
       </c>
       <c r="K5" s="5">
@@ -2541,17 +2529,17 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="6" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="42" t="s">
+    <row r="6" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D6" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="E6" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6" s="23" t="s">
+      <c r="E6" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="F6" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="H6" s="44">
+      <c r="H6" s="37">
         <f>0.002</f>
         <v>2E-3</v>
       </c>
@@ -2564,15 +2552,11 @@
       </c>
     </row>
     <row r="7" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D7" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="F7" s="32" t="s">
-        <v>72</v>
-      </c>
+      <c r="D7" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="47"/>
+      <c r="F7" s="42"/>
       <c r="J7" s="1">
         <f>J5*0.002</f>
         <v>2000</v>
@@ -2583,24 +2567,20 @@
       </c>
     </row>
     <row r="8" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D8" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="F9" s="15" t="s">
+      <c r="D8" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" s="47"/>
+      <c r="F8" s="42"/>
+    </row>
+    <row r="9" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D9" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="E9" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="F9" s="42" t="s">
         <v>72</v>
       </c>
       <c r="H9">
@@ -2609,65 +2589,59 @@
       </c>
     </row>
     <row r="10" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="E10" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="F10" s="26"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="42"/>
       <c r="H10" s="5">
         <f>H9*1000</f>
         <v>200000</v>
       </c>
     </row>
-    <row r="11" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="28" t="s">
+    <row r="11" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D11" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="E11" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="F11" s="26"/>
-    </row>
-    <row r="12" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="25" t="s">
+      <c r="E11" s="47"/>
+      <c r="F11" s="42"/>
+    </row>
+    <row r="12" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D12" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="E12" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="F12" s="23" t="s">
+      <c r="E12" s="47"/>
+      <c r="F12" s="42" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="13" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="E13" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" s="15" t="s">
+      <c r="E13" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="F13" s="44" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="16" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D17" s="40" t="s">
+      <c r="D17" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="E17" s="39" t="s">
+      <c r="E17" s="34" t="s">
         <v>73</v>
       </c>
       <c r="F17" s="20" t="s">
@@ -2675,55 +2649,55 @@
       </c>
     </row>
     <row r="18" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="E18" s="37" t="s">
+      <c r="D18" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F18" s="26" t="s">
+      <c r="F18" s="23" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D19" s="34" t="s">
+      <c r="D19" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="E19" s="33" t="s">
+      <c r="E19" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="F19" s="32" t="s">
+      <c r="F19" s="29" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="20" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="E20" s="30" t="s">
+      <c r="E20" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="F20" s="29" t="s">
+      <c r="F20" s="26" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="21" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D21" s="28" t="s">
+      <c r="D21" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="E21" s="27" t="s">
+      <c r="E21" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="F21" s="26"/>
+      <c r="F21" s="23"/>
     </row>
     <row r="22" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="28" t="s">
+      <c r="D22" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="E22" s="27" t="s">
+      <c r="E22" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="F22" s="26"/>
+      <c r="F22" s="23"/>
     </row>
     <row r="23" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D23" s="22" t="s">
